--- a/medicine/Psychotrope/Domaine_de_la_Solitude/Domaine_de_la_Solitude.xlsx
+++ b/medicine/Psychotrope/Domaine_de_la_Solitude/Domaine_de_la_Solitude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine de la Solitude est un couvent et un domaine viticole de Martillac en Gironde et est situé en AOC pessac-léognan.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1831, l'abbé Pierre-Bienvenu Noailles acquiert cette propriété pour y implanter la congrégation qu'il a fondée en 1820, les Sœurs de la Sainte Famille de Bordeaux. À sa mort, les « sœurs agricoles », tout en gérant l'orphelinat, créent le vignoble. La Congrégation de la Sainte Famille confie en 1993 l'exploitation du vignoble à la famille Bernard, propriétaire du Domaine de Chevalier, pour une durée de 40 ans[1].
-La tombe de l'abbé Noailles se trouve dans l'enceinte du domaine, à l'intérieur de la chapelle[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1831, l'abbé Pierre-Bienvenu Noailles acquiert cette propriété pour y implanter la congrégation qu'il a fondée en 1820, les Sœurs de la Sainte Famille de Bordeaux. À sa mort, les « sœurs agricoles », tout en gérant l'orphelinat, créent le vignoble. La Congrégation de la Sainte Famille confie en 1993 l'exploitation du vignoble à la famille Bernard, propriétaire du Domaine de Chevalier, pour une durée de 40 ans.
+La tombe de l'abbé Noailles se trouve dans l'enceinte du domaine, à l'intérieur de la chapelle.
 En avril 1879, une vaste bâtisse est construite pour l’accueil et les retraites. Elle abrite aussi des sœurs âgées.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Le terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terroir est constitué de sables noirs et graves blanches.
 </t>
@@ -575,7 +591,9 @@
           <t>Le vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vendanges sont entièrement manuelles et mise en cagettes pour ne pas écraser les grappes lors du transport. Le domaine utilise des cuves thermorégulées en acier inoxydable.
 </t>
